--- a/src/test/resources/files/Testdata.xlsx
+++ b/src/test/resources/files/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRATHEEP RAJ S\eclipse-workspace\tek_Advance_Selenium\src\test\resources\files\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>tekpyramid</t>
   </si>
@@ -420,12 +420,16 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,19 +765,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -781,10 +785,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>127</v>
       </c>
     </row>
@@ -804,10 +808,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>125</v>
       </c>
     </row>
@@ -827,34 +831,34 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -873,23 +877,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -897,13 +901,13 @@
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -914,13 +918,13 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -931,13 +935,13 @@
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -948,13 +952,13 @@
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -965,13 +969,13 @@
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -982,13 +986,13 @@
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1009,15 +1013,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
+      <c r="C1" t="s" s="0">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1034,322 +1038,322 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>120</v>
       </c>
     </row>
